--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -43,10 +43,10 @@
     <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
+    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
     <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1489,14 +1489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1510,25 +1503,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1540,16 +1526,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,6 +1557,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1586,18 +1587,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1610,15 +1611,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,7 +1633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,25 +1648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,13 +1690,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,19 +1762,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,55 +1810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,31 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,17 +1842,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,15 +1872,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1910,6 +1910,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1917,173 +1926,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2428,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:3">
@@ -2436,10 +2436,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:3">
@@ -2593,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:3">
@@ -2604,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:3">
@@ -2615,7 +2615,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:3">
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:3">
@@ -2659,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:3">
@@ -2670,7 +2670,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:3">
@@ -2681,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:3">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:3">
@@ -2714,7 +2714,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:3">
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:3">
@@ -2769,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:3">
@@ -2780,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:3">
@@ -2791,7 +2791,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:3">
@@ -2802,20 +2802,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:3">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:3">
@@ -2870,7 +2870,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:3">
@@ -2892,7 +2892,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:3">
@@ -2903,7 +2903,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1"/>
@@ -2942,7 +2942,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:3">
@@ -2953,7 +2953,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:3">
@@ -2975,7 +2975,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:3">
@@ -2986,7 +2986,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:3">
@@ -2997,7 +2997,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:3">
@@ -3030,7 +3030,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="1:3">
@@ -3041,7 +3041,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:3">
@@ -3052,7 +3052,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1" spans="1:3">
@@ -3063,7 +3063,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="1:3">
@@ -3085,7 +3085,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:3">
@@ -3096,7 +3096,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="1:3">
@@ -3107,7 +3107,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="1:3">
@@ -3129,7 +3129,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="1:3">
@@ -3140,7 +3140,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="1:3">
@@ -3151,7 +3151,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="1:3">
@@ -3162,7 +3162,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1" spans="1:3">
@@ -3173,7 +3173,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="1:3">
@@ -3184,7 +3184,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="1:3">
@@ -3195,7 +3195,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="1:3">
@@ -3206,7 +3206,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1" spans="1:3">
@@ -3217,7 +3217,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="1:3">
@@ -3239,7 +3239,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1" spans="1:3">
@@ -3250,7 +3250,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1" spans="1:3">
@@ -3261,7 +3261,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="1:3">
@@ -3272,7 +3272,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="1:3">
@@ -3294,7 +3294,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="1:3">
@@ -3305,7 +3305,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="1:3">
@@ -3316,7 +3316,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:3">
@@ -3327,7 +3327,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:3">
@@ -3349,7 +3349,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:3">
@@ -3360,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:3">
@@ -3371,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:3">
@@ -3382,7 +3382,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:3">
@@ -3404,7 +3404,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -3421,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1"/>
@@ -3822,7 +3822,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:3">
@@ -3833,7 +3833,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:3">
@@ -3844,7 +3844,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:3">
@@ -3855,7 +3855,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:3">
@@ -3877,7 +3877,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:3">
@@ -3888,7 +3888,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:3">
@@ -3899,7 +3899,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:3">
@@ -3910,7 +3910,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:3">
@@ -3921,7 +3921,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:3">
@@ -3932,7 +3932,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:3">
@@ -3943,7 +3943,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:3">
@@ -3954,7 +3954,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:3">
@@ -3965,7 +3965,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:3">
@@ -3987,7 +3987,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:3">
@@ -3998,7 +3998,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:3">
@@ -4009,7 +4009,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:3">
@@ -4020,7 +4020,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:3">
@@ -4042,7 +4042,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:3">
@@ -4053,7 +4053,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:3">
@@ -4064,7 +4064,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:3">
@@ -4075,7 +4075,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:3">
@@ -4097,7 +4097,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:3">
@@ -4108,7 +4108,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:3">
@@ -4119,7 +4119,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:3">
@@ -4130,7 +4130,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:3">
@@ -4152,7 +4152,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:3">
@@ -4163,7 +4163,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:3">
@@ -4174,7 +4174,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:3">
@@ -4207,7 +4207,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1"/>
@@ -4223,7 +4223,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:3">
@@ -4234,7 +4234,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:3">
@@ -4245,7 +4245,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:3">
@@ -4256,7 +4256,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:3">
@@ -4267,7 +4267,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:3">
@@ -4278,7 +4278,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:3">
@@ -4289,7 +4289,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:3">
@@ -4300,7 +4300,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:3">
@@ -4311,7 +4311,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:3">
@@ -4322,7 +4322,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:3">
@@ -4333,7 +4333,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:3">
@@ -4344,7 +4344,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:3">
@@ -4355,7 +4355,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:3">
@@ -4366,7 +4366,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:3">
@@ -4377,7 +4377,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:3">
@@ -4388,7 +4388,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:3">
@@ -4399,7 +4399,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:3">
@@ -4410,7 +4410,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:3">
@@ -4421,7 +4421,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:3">
@@ -4443,7 +4443,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:3">
@@ -4454,7 +4454,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:3">
@@ -4465,7 +4465,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:3">
@@ -4476,7 +4476,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:3">
@@ -4487,7 +4487,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:3">
@@ -4498,7 +4498,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:3">
@@ -4509,7 +4509,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:3">
@@ -4520,7 +4520,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:3">
@@ -4531,7 +4531,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:3">
@@ -4542,7 +4542,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:3">
@@ -4553,7 +4553,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:3">
@@ -4564,7 +4564,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:3">
@@ -4575,7 +4575,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:3">
@@ -4586,7 +4586,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:3">
@@ -4597,7 +4597,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:3">
@@ -4629,7 +4629,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:3">
@@ -4640,7 +4640,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:3">
@@ -4651,7 +4651,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:3">
@@ -4662,7 +4662,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:3">
@@ -4728,7 +4728,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:3">
@@ -4739,7 +4739,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:3">
@@ -4827,7 +4827,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:3">
@@ -4838,7 +4838,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="2:3">
@@ -4868,7 +4868,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:3">
@@ -4890,7 +4890,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:3">
@@ -4901,7 +4901,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:3">
@@ -4912,7 +4912,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:3">
@@ -4923,7 +4923,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:3">
@@ -4934,7 +4934,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:3">
@@ -4945,7 +4945,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:3">
@@ -4956,7 +4956,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:3">
@@ -4967,7 +4967,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:3">
@@ -4978,7 +4978,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:3">
@@ -5000,7 +5000,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:3">
@@ -5011,7 +5011,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:3">
@@ -5022,7 +5022,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:3">
@@ -5033,7 +5033,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:3">
@@ -5055,7 +5055,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:3">
@@ -5066,7 +5066,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:3">
@@ -5077,7 +5077,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:3">
@@ -5088,7 +5088,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:3">
@@ -5110,7 +5110,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:3">
@@ -5121,7 +5121,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:3">
@@ -5132,7 +5132,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:3">
@@ -5143,7 +5143,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:3">
@@ -5154,7 +5154,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:3">
@@ -5165,7 +5165,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:3">
@@ -5176,7 +5176,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:3">
@@ -5187,7 +5187,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:3">
@@ -5209,7 +5209,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:3">
@@ -5231,7 +5231,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:3">
@@ -5242,7 +5242,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="2:3">
@@ -5261,7 +5261,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:3">
@@ -5349,7 +5349,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1" spans="2:3">
@@ -5478,7 +5478,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1" spans="1:3">
@@ -5489,7 +5489,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1" spans="1:3">
@@ -5500,7 +5500,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1" spans="1:3">
@@ -5511,7 +5511,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1" spans="1:3">
@@ -5544,7 +5544,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1" spans="1:3">
@@ -5566,7 +5566,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1" spans="1:3">
@@ -5577,7 +5577,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1" spans="1:3">
@@ -5599,7 +5599,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1" spans="1:3">
@@ -5610,7 +5610,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1" spans="1:3">
@@ -5621,7 +5621,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1" spans="1:3">
@@ -5632,7 +5632,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1" spans="1:3">
@@ -5643,7 +5643,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1" spans="1:3">
@@ -5654,7 +5654,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1" spans="1:3">
@@ -5676,7 +5676,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1" spans="1:3">
@@ -5687,7 +5687,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1" spans="1:3">
@@ -5698,7 +5698,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1" spans="1:3">
@@ -5709,7 +5709,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1" spans="1:3">
@@ -5720,7 +5720,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1" spans="1:3">
@@ -5731,7 +5731,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1" spans="1:3">
@@ -5742,7 +5742,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1" spans="1:3">
@@ -5753,7 +5753,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1" spans="1:3">
@@ -5775,7 +5775,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1" spans="1:3">
@@ -5786,7 +5786,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1" spans="1:3">
@@ -5797,7 +5797,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1" spans="1:3">
@@ -5808,7 +5808,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1" spans="1:3">
@@ -5819,7 +5819,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1" spans="1:3">
@@ -5830,7 +5830,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1" spans="1:3">
@@ -5841,7 +5841,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1" spans="1:3">
@@ -5852,7 +5852,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1" spans="1:3">
@@ -5863,7 +5863,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1" spans="1:3">
@@ -5874,7 +5874,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1" spans="1:3">
@@ -5885,7 +5885,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1" spans="2:3">
@@ -5904,7 +5904,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1" spans="1:3">
@@ -5915,7 +5915,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1" spans="1:3">
@@ -5926,7 +5926,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1" spans="1:3">
@@ -5948,7 +5948,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1" spans="1:3">
@@ -5959,7 +5959,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1" spans="1:3">
@@ -5970,7 +5970,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1" spans="1:3">
@@ -5981,7 +5981,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1" spans="1:3">
@@ -5992,7 +5992,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1" spans="1:3">
@@ -6003,7 +6003,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1" spans="1:3">
@@ -6014,7 +6014,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1" spans="1:3">
@@ -6025,7 +6025,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1" spans="1:3">
@@ -6036,7 +6036,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1" spans="1:3">
@@ -6058,7 +6058,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1" spans="1:3">
@@ -6069,7 +6069,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1" spans="1:3">
@@ -6080,7 +6080,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1" spans="1:3">
@@ -6091,7 +6091,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1" spans="2:3">
@@ -6110,7 +6110,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1" spans="1:3">
@@ -6132,7 +6132,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1" spans="1:3">
@@ -6143,7 +6143,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1" spans="1:3">
@@ -6154,7 +6154,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1" spans="1:3">
@@ -6165,7 +6165,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1" spans="1:3">
@@ -6176,7 +6176,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1" spans="1:3">
@@ -6198,7 +6198,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1" spans="1:3">
@@ -6209,7 +6209,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1" spans="1:3">
@@ -6231,7 +6231,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1" spans="1:3">
@@ -6242,7 +6242,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1" spans="1:3">
@@ -6253,7 +6253,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1" spans="1:3">
@@ -6264,7 +6264,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1" spans="1:3">
@@ -6275,7 +6275,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1" spans="1:3">
@@ -6286,7 +6286,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1" spans="1:3">
@@ -6308,7 +6308,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1" spans="1:3">
@@ -6319,7 +6319,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1" spans="1:3">
@@ -6341,7 +6341,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1" spans="1:3">
@@ -6352,7 +6352,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1" spans="1:3">
@@ -6363,7 +6363,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1" spans="1:3">
@@ -6374,7 +6374,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1" spans="1:3">
@@ -6385,7 +6385,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1" spans="1:3">
@@ -6396,7 +6396,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1" spans="1:3">
@@ -6407,7 +6407,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1" spans="1:3">
@@ -6418,7 +6418,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1" spans="1:3">
@@ -6429,7 +6429,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1" spans="1:3">
@@ -6451,7 +6451,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1" spans="1:3">
@@ -6462,7 +6462,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1" spans="1:3">
@@ -6473,7 +6473,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1" spans="1:3">
@@ -6484,7 +6484,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1" spans="1:3">
@@ -6495,7 +6495,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1" spans="1:3">
@@ -6506,7 +6506,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1" spans="1:3">
@@ -6517,7 +6517,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1" spans="1:3">
@@ -6528,7 +6528,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1" spans="1:3">
@@ -6572,7 +6572,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1" spans="1:3">
@@ -6583,7 +6583,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1" spans="2:3">
@@ -6602,7 +6602,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1" spans="1:3">
@@ -6613,7 +6613,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" spans="1:3">
@@ -6624,7 +6624,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1" spans="1:3">
@@ -6635,7 +6635,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1" spans="1:3">
@@ -6646,7 +6646,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1" spans="1:3">
@@ -6657,7 +6657,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" spans="2:3">
@@ -6676,7 +6676,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1" spans="1:3">
@@ -6687,7 +6687,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1" spans="1:3">
@@ -6698,7 +6698,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1" spans="1:3">
@@ -6709,7 +6709,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1" spans="1:3">
@@ -6720,7 +6720,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1" spans="1:3">
@@ -6731,7 +6731,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1" spans="1:3">
@@ -6742,7 +6742,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1" spans="1:3">
@@ -6753,7 +6753,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1" spans="1:3">
@@ -6764,7 +6764,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1" spans="1:3">
@@ -6775,7 +6775,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1" spans="1:3">
@@ -6797,7 +6797,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" spans="1:3">
@@ -6808,7 +6808,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1" spans="1:3">
@@ -6819,7 +6819,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1" spans="1:3">
@@ -6830,7 +6830,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" spans="1:3">
@@ -6841,7 +6841,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1" spans="1:3">
@@ -6852,7 +6852,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1" spans="1:3">
@@ -6863,7 +6863,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1" spans="1:3">
@@ -6874,7 +6874,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1" spans="1:3">
@@ -6885,7 +6885,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1" spans="1:3">
@@ -6896,7 +6896,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1" spans="1:3">
@@ -6907,7 +6907,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1" spans="1:3">
@@ -6918,7 +6918,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1" spans="1:3">
@@ -6929,7 +6929,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1" spans="1:3">
@@ -6940,7 +6940,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1" spans="1:3">
@@ -6951,7 +6951,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1" spans="1:3">
@@ -6962,7 +6962,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1" spans="1:3">
@@ -6973,7 +6973,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1" spans="1:3">
@@ -6984,7 +6984,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1" spans="1:3">
@@ -6995,7 +6995,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1" spans="1:3">
@@ -7017,7 +7017,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1" spans="1:3">
@@ -7028,7 +7028,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1" spans="1:3">
@@ -7039,7 +7039,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1" spans="1:3">
@@ -7050,7 +7050,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1" spans="1:3">
@@ -7061,7 +7061,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1" spans="1:3">
@@ -7072,7 +7072,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1" spans="1:3">
@@ -7083,7 +7083,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1" spans="1:3">
@@ -7094,7 +7094,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1" spans="1:3">
@@ -7105,7 +7105,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1" spans="1:3">
@@ -7116,7 +7116,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1" spans="1:3">
@@ -7127,7 +7127,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1" spans="1:3">
@@ -7138,7 +7138,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1" spans="1:3">
@@ -7149,7 +7149,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1" spans="1:3">
@@ -7160,7 +7160,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1" spans="1:3">
@@ -7171,7 +7171,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1" spans="1:3">
@@ -7182,7 +7182,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1" spans="1:3">
@@ -7193,7 +7193,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1" spans="1:3">
@@ -7204,7 +7204,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1" spans="1:3">
@@ -7215,7 +7215,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1" spans="1:3">
@@ -7226,7 +7226,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461" ht="15.75" customHeight="1" spans="1:3">
@@ -7237,7 +7237,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1" spans="1:3">
@@ -7248,7 +7248,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463" ht="15.75" customHeight="1" spans="1:3">
@@ -7259,7 +7259,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464" ht="15.75" customHeight="1" spans="1:3">
@@ -7270,7 +7270,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1" spans="1:3">
@@ -7281,7 +7281,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" ht="15.75" customHeight="1" spans="1:3">
@@ -7292,7 +7292,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1" spans="1:3">
@@ -7303,7 +7303,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1" spans="1:3">
@@ -7314,7 +7314,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469" ht="15.75" customHeight="1" spans="1:3">
@@ -7325,7 +7325,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470" ht="15.75" customHeight="1" spans="2:3">
@@ -7345,7 +7345,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473" ht="15.75" customHeight="1" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474" ht="15.75" customHeight="1" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475" ht="15.75" customHeight="1" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1" spans="1:3">
@@ -7389,7 +7389,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1" spans="1:3">
@@ -7400,7 +7400,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1" spans="1:3">
@@ -7411,7 +7411,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="479" ht="15.75" customHeight="1" spans="1:3">
@@ -7422,7 +7422,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480" ht="15.75" customHeight="1" spans="1:3">
@@ -7433,7 +7433,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="481" ht="15.75" customHeight="1" spans="1:3">
@@ -7444,7 +7444,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
@@ -1502,17 +1502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,15 +1518,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1566,13 +1556,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1595,10 +1578,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1610,15 +1594,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,6 +1605,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1648,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +1738,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,55 +1804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,97 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,37 +1842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1888,6 +1868,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,6 +1899,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1918,31 +1931,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1960,130 +1960,130 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2439,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:3">
@@ -2447,10 +2447,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:3">
@@ -2593,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:3">
@@ -2604,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:3">
@@ -2615,7 +2615,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:3">
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:3">
@@ -2659,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:3">
@@ -2670,7 +2670,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:3">
@@ -2681,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:3">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:3">
@@ -2714,7 +2714,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:3">
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:3">
@@ -2769,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:3">
@@ -2780,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:3">
@@ -2791,7 +2791,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:3">
@@ -2802,20 +2802,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:3">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:3">
@@ -2870,7 +2870,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:3">
@@ -2892,7 +2892,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:3">
@@ -2903,7 +2903,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1"/>
@@ -2942,7 +2942,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:3">
@@ -2953,7 +2953,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:3">
@@ -2975,7 +2975,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:3">
@@ -2986,7 +2986,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:3">
@@ -2997,7 +2997,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:3">
@@ -3030,7 +3030,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="1:3">
@@ -3041,7 +3041,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:3">
@@ -3052,7 +3052,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1" spans="1:3">
@@ -3063,7 +3063,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="1:3">
@@ -3085,7 +3085,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:3">
@@ -3096,7 +3096,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="1:3">
@@ -3107,7 +3107,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="1:3">
@@ -3129,7 +3129,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="1:3">
@@ -3140,7 +3140,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="1:3">
@@ -3151,7 +3151,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="1:3">
@@ -3162,7 +3162,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1" spans="1:3">
@@ -3173,7 +3173,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="1:3">
@@ -3184,7 +3184,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="1:3">
@@ -3195,7 +3195,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="1:3">
@@ -3206,7 +3206,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1" spans="1:3">
@@ -3217,7 +3217,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="1:3">
@@ -3239,7 +3239,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1" spans="1:3">
@@ -3250,7 +3250,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1" spans="1:3">
@@ -3261,7 +3261,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="1:3">
@@ -3272,7 +3272,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="1:3">
@@ -3294,7 +3294,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="1:3">
@@ -3305,7 +3305,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="1:3">
@@ -3316,7 +3316,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:3">
@@ -3327,7 +3327,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:3">
@@ -3349,7 +3349,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:3">
@@ -3360,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:3">
@@ -3371,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:3">
@@ -3382,7 +3382,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:3">
@@ -3404,7 +3404,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -3421,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1"/>
@@ -3822,7 +3822,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:3">
@@ -3833,7 +3833,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:3">
@@ -3844,7 +3844,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:3">
@@ -3855,7 +3855,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:3">
@@ -3877,7 +3877,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:3">
@@ -3888,7 +3888,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:3">
@@ -3899,7 +3899,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:3">
@@ -3910,7 +3910,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:3">
@@ -3921,7 +3921,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:3">
@@ -3932,7 +3932,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:3">
@@ -3943,7 +3943,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:3">
@@ -3954,7 +3954,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:3">
@@ -3965,7 +3965,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:3">
@@ -3987,7 +3987,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:3">
@@ -3998,7 +3998,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:3">
@@ -4009,7 +4009,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:3">
@@ -4020,7 +4020,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:3">
@@ -4042,7 +4042,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:3">
@@ -4053,7 +4053,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:3">
@@ -4064,7 +4064,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:3">
@@ -4075,7 +4075,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:3">
@@ -4097,7 +4097,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:3">
@@ -4108,7 +4108,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:3">
@@ -4119,7 +4119,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:3">
@@ -4130,7 +4130,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:3">
@@ -4152,7 +4152,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:3">
@@ -4163,7 +4163,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:3">
@@ -4174,7 +4174,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:3">
@@ -4207,7 +4207,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1"/>
@@ -4223,7 +4223,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:3">
@@ -4234,7 +4234,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:3">
@@ -4245,7 +4245,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:3">
@@ -4256,7 +4256,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:3">
@@ -4267,7 +4267,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:3">
@@ -4278,7 +4278,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:3">
@@ -4289,7 +4289,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:3">
@@ -4300,7 +4300,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:3">
@@ -4311,7 +4311,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:3">
@@ -4322,7 +4322,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:3">
@@ -4333,7 +4333,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:3">
@@ -4344,7 +4344,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:3">
@@ -4355,7 +4355,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:3">
@@ -4366,7 +4366,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:3">
@@ -4377,7 +4377,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:3">
@@ -4388,7 +4388,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:3">
@@ -4399,7 +4399,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:3">
@@ -4410,7 +4410,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:3">
@@ -4421,7 +4421,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:3">
@@ -4443,7 +4443,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:3">
@@ -4454,7 +4454,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:3">
@@ -4465,7 +4465,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:3">
@@ -4476,7 +4476,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:3">
@@ -4487,7 +4487,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:3">
@@ -4498,7 +4498,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:3">
@@ -4509,7 +4509,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:3">
@@ -4520,7 +4520,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:3">
@@ -4531,7 +4531,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:3">
@@ -4542,7 +4542,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:3">
@@ -4553,7 +4553,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:3">
@@ -4564,7 +4564,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:3">
@@ -4575,7 +4575,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:3">
@@ -4586,7 +4586,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:3">
@@ -4597,7 +4597,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:3">
@@ -4629,7 +4629,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:3">
@@ -4640,7 +4640,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:3">
@@ -4651,7 +4651,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:3">
@@ -4662,7 +4662,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:3">
@@ -4728,7 +4728,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:3">
@@ -4739,7 +4739,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:3">
@@ -4827,7 +4827,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:3">
@@ -4838,7 +4838,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="2:3">
@@ -4868,7 +4868,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:3">
@@ -4890,7 +4890,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:3">
@@ -4901,7 +4901,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:3">
@@ -4912,7 +4912,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:3">
@@ -4923,7 +4923,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:3">
@@ -4934,7 +4934,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:3">
@@ -4945,7 +4945,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:3">
@@ -4956,7 +4956,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:3">
@@ -4967,7 +4967,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:3">
@@ -4978,7 +4978,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:3">
@@ -5000,7 +5000,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:3">
@@ -5011,7 +5011,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:3">
@@ -5022,7 +5022,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:3">
@@ -5033,7 +5033,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:3">
@@ -5055,7 +5055,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:3">
@@ -5066,7 +5066,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:3">
@@ -5077,7 +5077,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:3">
@@ -5088,7 +5088,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:3">
@@ -5110,7 +5110,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:3">
@@ -5121,7 +5121,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:3">
@@ -5132,7 +5132,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:3">
@@ -5143,7 +5143,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:3">
@@ -5154,7 +5154,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:3">
@@ -5165,7 +5165,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:3">
@@ -5176,7 +5176,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:3">
@@ -5187,7 +5187,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:3">
@@ -5209,7 +5209,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:3">
@@ -5231,7 +5231,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:3">
@@ -5242,7 +5242,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="2:3">
@@ -5261,7 +5261,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:3">
@@ -5349,7 +5349,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1" spans="2:3">
@@ -5478,7 +5478,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1" spans="1:3">
@@ -5489,7 +5489,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1" spans="1:3">
@@ -5500,7 +5500,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1" spans="1:3">
@@ -5511,7 +5511,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1" spans="1:3">
@@ -5544,7 +5544,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1" spans="1:3">
@@ -5566,7 +5566,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1" spans="1:3">
@@ -5577,7 +5577,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1" spans="1:3">
@@ -5599,7 +5599,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1" spans="1:3">
@@ -5610,7 +5610,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1" spans="1:3">
@@ -5621,7 +5621,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1" spans="1:3">
@@ -5632,7 +5632,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1" spans="1:3">
@@ -5643,7 +5643,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1" spans="1:3">
@@ -5654,7 +5654,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1" spans="1:3">
@@ -5676,7 +5676,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1" spans="1:3">
@@ -5687,7 +5687,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1" spans="1:3">
@@ -5698,7 +5698,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1" spans="1:3">
@@ -5709,7 +5709,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1" spans="1:3">
@@ -5720,7 +5720,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1" spans="1:3">
@@ -5731,7 +5731,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1" spans="1:3">
@@ -5742,7 +5742,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1" spans="1:3">
@@ -5753,7 +5753,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1" spans="1:3">
@@ -5775,7 +5775,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1" spans="1:3">
@@ -5786,7 +5786,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1" spans="1:3">
@@ -5797,7 +5797,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1" spans="1:3">
@@ -5808,7 +5808,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1" spans="1:3">
@@ -5819,7 +5819,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1" spans="1:3">
@@ -5830,7 +5830,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1" spans="1:3">
@@ -5841,7 +5841,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1" spans="1:3">
@@ -5852,7 +5852,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1" spans="1:3">
@@ -5863,7 +5863,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1" spans="1:3">
@@ -5874,7 +5874,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1" spans="1:3">
@@ -5885,7 +5885,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1" spans="2:3">
@@ -5904,7 +5904,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1" spans="1:3">
@@ -5915,7 +5915,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1" spans="1:3">
@@ -5926,7 +5926,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1" spans="1:3">
@@ -5948,7 +5948,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1" spans="1:3">
@@ -5959,7 +5959,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1" spans="1:3">
@@ -5970,7 +5970,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1" spans="1:3">
@@ -5981,7 +5981,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1" spans="1:3">
@@ -5992,7 +5992,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1" spans="1:3">
@@ -6003,7 +6003,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1" spans="1:3">
@@ -6014,7 +6014,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1" spans="1:3">
@@ -6025,7 +6025,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1" spans="1:3">
@@ -6036,7 +6036,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1" spans="1:3">
@@ -6058,7 +6058,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1" spans="1:3">
@@ -6069,7 +6069,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1" spans="1:3">
@@ -6080,7 +6080,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1" spans="1:3">
@@ -6091,7 +6091,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1" spans="2:3">
@@ -6110,7 +6110,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1" spans="1:3">
@@ -6132,7 +6132,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1" spans="1:3">
@@ -6143,7 +6143,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1" spans="1:3">
@@ -6154,7 +6154,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1" spans="1:3">
@@ -6165,7 +6165,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1" spans="1:3">
@@ -6176,7 +6176,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1" spans="1:3">
@@ -6198,7 +6198,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1" spans="1:3">
@@ -6209,7 +6209,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1" spans="1:3">
@@ -6231,7 +6231,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1" spans="1:3">
@@ -6242,7 +6242,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1" spans="1:3">
@@ -6253,7 +6253,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1" spans="1:3">
@@ -6264,7 +6264,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1" spans="1:3">
@@ -6275,7 +6275,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1" spans="1:3">
@@ -6286,7 +6286,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1" spans="1:3">
@@ -6308,7 +6308,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1" spans="1:3">
@@ -6319,7 +6319,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1" spans="1:3">
@@ -6341,7 +6341,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1" spans="1:3">
@@ -6352,7 +6352,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1" spans="1:3">
@@ -6363,7 +6363,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1" spans="1:3">
@@ -6374,7 +6374,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1" spans="1:3">
@@ -6385,7 +6385,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1" spans="1:3">
@@ -6396,7 +6396,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1" spans="1:3">
@@ -6407,7 +6407,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1" spans="1:3">
@@ -6418,7 +6418,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1" spans="1:3">
@@ -6429,7 +6429,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1" spans="1:3">
@@ -6451,7 +6451,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1" spans="1:3">
@@ -6462,7 +6462,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1" spans="1:3">
@@ -6473,7 +6473,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1" spans="1:3">
@@ -6484,7 +6484,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1" spans="1:3">
@@ -6495,7 +6495,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1" spans="1:3">
@@ -6506,7 +6506,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1" spans="1:3">
@@ -6517,7 +6517,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1" spans="1:3">
@@ -6528,7 +6528,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1" spans="1:3">
@@ -6572,7 +6572,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1" spans="1:3">
@@ -6583,7 +6583,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1" spans="2:3">
@@ -6602,7 +6602,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1" spans="1:3">
@@ -6613,7 +6613,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" spans="1:3">
@@ -6624,7 +6624,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1" spans="1:3">
@@ -6635,7 +6635,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1" spans="1:3">
@@ -6646,7 +6646,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1" spans="1:3">
@@ -6657,7 +6657,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" spans="2:3">
@@ -6676,7 +6676,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1" spans="1:3">
@@ -6687,7 +6687,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1" spans="1:3">
@@ -6698,7 +6698,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1" spans="1:3">
@@ -6709,7 +6709,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1" spans="1:3">
@@ -6720,7 +6720,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1" spans="1:3">
@@ -6731,7 +6731,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1" spans="1:3">
@@ -6742,7 +6742,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1" spans="1:3">
@@ -6753,7 +6753,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1" spans="1:3">
@@ -6764,7 +6764,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1" spans="1:3">
@@ -6775,7 +6775,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1" spans="1:3">
@@ -6797,7 +6797,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" spans="1:3">
@@ -6808,7 +6808,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1" spans="1:3">
@@ -6819,7 +6819,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1" spans="1:3">
@@ -6830,7 +6830,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" spans="1:3">
@@ -6841,7 +6841,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1" spans="1:3">
@@ -6852,7 +6852,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1" spans="1:3">
@@ -6863,7 +6863,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1" spans="1:3">
@@ -6874,7 +6874,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1" spans="1:3">
@@ -6885,7 +6885,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1" spans="1:3">
@@ -6896,7 +6896,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1" spans="1:3">
@@ -6907,7 +6907,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1" spans="1:3">
@@ -6918,7 +6918,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1" spans="1:3">
@@ -6929,7 +6929,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1" spans="1:3">
@@ -6940,7 +6940,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1" spans="1:3">
@@ -6951,7 +6951,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1" spans="1:3">
@@ -6962,7 +6962,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1" spans="1:3">
@@ -6973,7 +6973,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1" spans="1:3">
@@ -6984,7 +6984,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1" spans="1:3">
@@ -6995,7 +6995,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1" spans="1:3">
@@ -7017,7 +7017,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1" spans="1:3">
@@ -7028,7 +7028,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1" spans="1:3">
@@ -7039,7 +7039,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1" spans="1:3">
@@ -7050,7 +7050,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1" spans="1:3">
@@ -7061,7 +7061,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1" spans="1:3">
@@ -7072,7 +7072,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1" spans="1:3">
@@ -7083,7 +7083,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1" spans="1:3">
@@ -7094,7 +7094,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1" spans="1:3">
@@ -7105,7 +7105,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1" spans="1:3">
@@ -7116,7 +7116,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1" spans="1:3">
@@ -7127,7 +7127,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1" spans="1:3">
@@ -7138,7 +7138,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1" spans="1:3">
@@ -7149,7 +7149,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1" spans="1:3">
@@ -7160,7 +7160,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1" spans="1:3">
@@ -7171,7 +7171,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1" spans="1:3">
@@ -7182,7 +7182,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1" spans="1:3">
@@ -7193,7 +7193,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1" spans="1:3">
@@ -7204,7 +7204,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1" spans="1:3">
@@ -7215,7 +7215,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1" spans="1:3">
@@ -7226,7 +7226,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461" ht="15.75" customHeight="1" spans="1:3">
@@ -7237,7 +7237,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1" spans="1:3">
@@ -7248,7 +7248,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463" ht="15.75" customHeight="1" spans="1:3">
@@ -7259,7 +7259,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" ht="15.75" customHeight="1" spans="1:3">
@@ -7270,7 +7270,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1" spans="1:3">
@@ -7281,7 +7281,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" ht="15.75" customHeight="1" spans="1:3">
@@ -7292,7 +7292,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1" spans="1:3">
@@ -7303,7 +7303,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1" spans="1:3">
@@ -7314,7 +7314,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" ht="15.75" customHeight="1" spans="1:3">
@@ -7325,7 +7325,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470" ht="15.75" customHeight="1" spans="2:3">
@@ -7345,7 +7345,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" ht="15.75" customHeight="1" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" ht="15.75" customHeight="1" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" ht="15.75" customHeight="1" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1" spans="1:3">
@@ -7389,7 +7389,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1" spans="1:3">
@@ -7400,7 +7400,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1" spans="1:3">
@@ -7411,7 +7411,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="479" ht="15.75" customHeight="1" spans="1:3">
@@ -7422,7 +7422,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="480" ht="15.75" customHeight="1" spans="1:3">
@@ -7433,7 +7433,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481" ht="15.75" customHeight="1" spans="1:3">
@@ -7444,7 +7444,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -49,13 +49,13 @@
     <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
-  </si>
-  <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
   </si>
   <si>
     <t>Write a program to cyclically rotate an array by one.</t>
@@ -1419,8 +1419,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1491,19 +1491,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,23 +1517,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,13 +1545,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1591,6 +1577,20 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1648,13 +1648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,19 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,25 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,7 +1696,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,7 +1768,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,67 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,21 +1839,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1906,6 +1891,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1942,82 +1942,82 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2026,64 +2026,64 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2450,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:3">
@@ -2458,10 +2458,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:3">
@@ -2469,10 +2469,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:3">
@@ -2593,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:3">
@@ -2604,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:3">
@@ -2615,7 +2615,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:3">
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:3">
@@ -2659,7 +2659,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:3">
@@ -2670,7 +2670,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:3">
@@ -2681,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:3">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:3">
@@ -2714,7 +2714,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:3">
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:3">
@@ -2769,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:3">
@@ -2780,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:3">
@@ -2791,7 +2791,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:3">
@@ -2802,20 +2802,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:3">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:3">
@@ -2870,7 +2870,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:3">
@@ -2892,7 +2892,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:3">
@@ -2903,7 +2903,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1"/>
@@ -2942,7 +2942,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:3">
@@ -2953,7 +2953,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:3">
@@ -2975,7 +2975,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:3">
@@ -2986,7 +2986,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:3">
@@ -2997,7 +2997,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:3">
@@ -3030,7 +3030,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="1:3">
@@ -3041,7 +3041,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:3">
@@ -3052,7 +3052,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1" spans="1:3">
@@ -3063,7 +3063,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="1:3">
@@ -3085,7 +3085,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:3">
@@ -3096,7 +3096,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="1:3">
@@ -3107,7 +3107,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="1:3">
@@ -3129,7 +3129,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="1:3">
@@ -3140,7 +3140,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="1:3">
@@ -3151,7 +3151,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="1:3">
@@ -3162,7 +3162,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1" spans="1:3">
@@ -3173,7 +3173,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="1:3">
@@ -3184,7 +3184,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="1:3">
@@ -3195,7 +3195,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="1:3">
@@ -3206,7 +3206,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1" spans="1:3">
@@ -3217,7 +3217,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="1:3">
@@ -3239,7 +3239,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1" spans="1:3">
@@ -3250,7 +3250,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1" spans="1:3">
@@ -3261,7 +3261,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="1:3">
@@ -3272,7 +3272,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="1:3">
@@ -3294,7 +3294,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="1:3">
@@ -3305,7 +3305,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="1:3">
@@ -3316,7 +3316,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:3">
@@ -3327,7 +3327,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:3">
@@ -3349,7 +3349,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:3">
@@ -3360,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:3">
@@ -3371,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:3">
@@ -3382,7 +3382,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:3">
@@ -3404,7 +3404,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -3421,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:3">
@@ -3498,7 +3498,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:3">
@@ -3509,7 +3509,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:3">
@@ -3531,7 +3531,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:3">
@@ -3542,7 +3542,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:3">
@@ -3553,7 +3553,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:3">
@@ -3564,7 +3564,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:3">
@@ -3575,7 +3575,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:3">
@@ -3597,7 +3597,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:3">
@@ -3619,7 +3619,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:3">
@@ -3641,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:3">
@@ -3652,7 +3652,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:3">
@@ -3663,7 +3663,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:3">
@@ -3674,7 +3674,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:3">
@@ -3685,7 +3685,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:3">
@@ -3707,7 +3707,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:3">
@@ -3718,7 +3718,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:3">
@@ -3740,7 +3740,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:3">
@@ -3751,7 +3751,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:3">
@@ -3762,7 +3762,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:3">
@@ -3784,7 +3784,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:3">
@@ -3795,7 +3795,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1"/>
@@ -3822,7 +3822,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:3">
@@ -3833,7 +3833,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:3">
@@ -3844,7 +3844,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:3">
@@ -3855,7 +3855,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:3">
@@ -3877,7 +3877,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:3">
@@ -3888,7 +3888,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:3">
@@ -3899,7 +3899,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:3">
@@ -3910,7 +3910,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:3">
@@ -3921,7 +3921,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:3">
@@ -3932,7 +3932,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:3">
@@ -3943,7 +3943,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:3">
@@ -3954,7 +3954,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:3">
@@ -3965,7 +3965,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:3">
@@ -3987,7 +3987,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:3">
@@ -3998,7 +3998,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:3">
@@ -4009,7 +4009,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:3">
@@ -4020,7 +4020,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:3">
@@ -4042,7 +4042,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:3">
@@ -4053,7 +4053,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:3">
@@ -4064,7 +4064,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:3">
@@ -4075,7 +4075,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:3">
@@ -4097,7 +4097,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:3">
@@ -4108,7 +4108,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:3">
@@ -4119,7 +4119,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:3">
@@ -4130,7 +4130,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:3">
@@ -4152,7 +4152,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:3">
@@ -4163,7 +4163,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:3">
@@ -4174,7 +4174,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:3">
@@ -4207,7 +4207,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1"/>
@@ -4223,7 +4223,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:3">
@@ -4234,7 +4234,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:3">
@@ -4245,7 +4245,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:3">
@@ -4256,7 +4256,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:3">
@@ -4267,7 +4267,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:3">
@@ -4278,7 +4278,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:3">
@@ -4289,7 +4289,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:3">
@@ -4300,7 +4300,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:3">
@@ -4311,7 +4311,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:3">
@@ -4322,7 +4322,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:3">
@@ -4333,7 +4333,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:3">
@@ -4344,7 +4344,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:3">
@@ -4355,7 +4355,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:3">
@@ -4366,7 +4366,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:3">
@@ -4377,7 +4377,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:3">
@@ -4388,7 +4388,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:3">
@@ -4399,7 +4399,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:3">
@@ -4410,7 +4410,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:3">
@@ -4421,7 +4421,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:3">
@@ -4443,7 +4443,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:3">
@@ -4454,7 +4454,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:3">
@@ -4465,7 +4465,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:3">
@@ -4476,7 +4476,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:3">
@@ -4487,7 +4487,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:3">
@@ -4498,7 +4498,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:3">
@@ -4509,7 +4509,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:3">
@@ -4520,7 +4520,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:3">
@@ -4531,7 +4531,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:3">
@@ -4542,7 +4542,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:3">
@@ -4553,7 +4553,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:3">
@@ -4564,7 +4564,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:3">
@@ -4575,7 +4575,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:3">
@@ -4586,7 +4586,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:3">
@@ -4597,7 +4597,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:3">
@@ -4629,7 +4629,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:3">
@@ -4640,7 +4640,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:3">
@@ -4651,7 +4651,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:3">
@@ -4662,7 +4662,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:3">
@@ -4728,7 +4728,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:3">
@@ -4739,7 +4739,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:3">
@@ -4827,7 +4827,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:3">
@@ -4838,7 +4838,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="2:3">
@@ -4868,7 +4868,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:3">
@@ -4890,7 +4890,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:3">
@@ -4901,7 +4901,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:3">
@@ -4912,7 +4912,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:3">
@@ -4923,7 +4923,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:3">
@@ -4934,7 +4934,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:3">
@@ -4945,7 +4945,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:3">
@@ -4956,7 +4956,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:3">
@@ -4967,7 +4967,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:3">
@@ -4978,7 +4978,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:3">
@@ -5000,7 +5000,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:3">
@@ -5011,7 +5011,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:3">
@@ -5022,7 +5022,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:3">
@@ -5033,7 +5033,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:3">
@@ -5055,7 +5055,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:3">
@@ -5066,7 +5066,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:3">
@@ -5077,7 +5077,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:3">
@@ -5088,7 +5088,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:3">
@@ -5110,7 +5110,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:3">
@@ -5121,7 +5121,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:3">
@@ -5132,7 +5132,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:3">
@@ -5143,7 +5143,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:3">
@@ -5154,7 +5154,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:3">
@@ -5165,7 +5165,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:3">
@@ -5176,7 +5176,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:3">
@@ -5187,7 +5187,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:3">
@@ -5209,7 +5209,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:3">
@@ -5231,7 +5231,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:3">
@@ -5242,7 +5242,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="2:3">
@@ -5261,7 +5261,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:3">
@@ -5349,7 +5349,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1" spans="2:3">
@@ -5478,7 +5478,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1" spans="1:3">
@@ -5489,7 +5489,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1" spans="1:3">
@@ -5500,7 +5500,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1" spans="1:3">
@@ -5511,7 +5511,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1" spans="1:3">
@@ -5533,7 +5533,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1" spans="1:3">
@@ -5544,7 +5544,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1" spans="1:3">
@@ -5566,7 +5566,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1" spans="1:3">
@@ -5577,7 +5577,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1" spans="1:3">
@@ -5599,7 +5599,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1" spans="1:3">
@@ -5610,7 +5610,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1" spans="1:3">
@@ -5621,7 +5621,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1" spans="1:3">
@@ -5632,7 +5632,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1" spans="1:3">
@@ -5643,7 +5643,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1" spans="1:3">
@@ -5654,7 +5654,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1" spans="1:3">
@@ -5676,7 +5676,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1" spans="1:3">
@@ -5687,7 +5687,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1" spans="1:3">
@@ -5698,7 +5698,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1" spans="1:3">
@@ -5709,7 +5709,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1" spans="1:3">
@@ -5720,7 +5720,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1" spans="1:3">
@@ -5731,7 +5731,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1" spans="1:3">
@@ -5742,7 +5742,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1" spans="1:3">
@@ -5753,7 +5753,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1" spans="1:3">
@@ -5775,7 +5775,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1" spans="1:3">
@@ -5786,7 +5786,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1" spans="1:3">
@@ -5797,7 +5797,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1" spans="1:3">
@@ -5808,7 +5808,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1" spans="1:3">
@@ -5819,7 +5819,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1" spans="1:3">
@@ -5830,7 +5830,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1" spans="1:3">
@@ -5841,7 +5841,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1" spans="1:3">
@@ -5852,7 +5852,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1" spans="1:3">
@@ -5863,7 +5863,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1" spans="1:3">
@@ -5874,7 +5874,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1" spans="1:3">
@@ -5885,7 +5885,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1" spans="2:3">
@@ -5904,7 +5904,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1" spans="1:3">
@@ -5915,7 +5915,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1" spans="1:3">
@@ -5926,7 +5926,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1" spans="1:3">
@@ -5948,7 +5948,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1" spans="1:3">
@@ -5959,7 +5959,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1" spans="1:3">
@@ -5970,7 +5970,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1" spans="1:3">
@@ -5981,7 +5981,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1" spans="1:3">
@@ -5992,7 +5992,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1" spans="1:3">
@@ -6003,7 +6003,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1" spans="1:3">
@@ -6014,7 +6014,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1" spans="1:3">
@@ -6025,7 +6025,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1" spans="1:3">
@@ -6036,7 +6036,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1" spans="1:3">
@@ -6058,7 +6058,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1" spans="1:3">
@@ -6069,7 +6069,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1" spans="1:3">
@@ -6080,7 +6080,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1" spans="1:3">
@@ -6091,7 +6091,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1" spans="2:3">
@@ -6110,7 +6110,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1" spans="1:3">
@@ -6132,7 +6132,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1" spans="1:3">
@@ -6143,7 +6143,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1" spans="1:3">
@@ -6154,7 +6154,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1" spans="1:3">
@@ -6165,7 +6165,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1" spans="1:3">
@@ -6176,7 +6176,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1" spans="1:3">
@@ -6198,7 +6198,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1" spans="1:3">
@@ -6209,7 +6209,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1" spans="1:3">
@@ -6231,7 +6231,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1" spans="1:3">
@@ -6242,7 +6242,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1" spans="1:3">
@@ -6253,7 +6253,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1" spans="1:3">
@@ -6264,7 +6264,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1" spans="1:3">
@@ -6275,7 +6275,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1" spans="1:3">
@@ -6286,7 +6286,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1" spans="1:3">
@@ -6308,7 +6308,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1" spans="1:3">
@@ -6319,7 +6319,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1" spans="1:3">
@@ -6341,7 +6341,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1" spans="1:3">
@@ -6352,7 +6352,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1" spans="1:3">
@@ -6363,7 +6363,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1" spans="1:3">
@@ -6374,7 +6374,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1" spans="1:3">
@@ -6385,7 +6385,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1" spans="1:3">
@@ -6396,7 +6396,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1" spans="1:3">
@@ -6407,7 +6407,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1" spans="1:3">
@@ -6418,7 +6418,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1" spans="1:3">
@@ -6429,7 +6429,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1" spans="1:3">
@@ -6451,7 +6451,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1" spans="1:3">
@@ -6462,7 +6462,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1" spans="1:3">
@@ -6473,7 +6473,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1" spans="1:3">
@@ -6484,7 +6484,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1" spans="1:3">
@@ -6495,7 +6495,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1" spans="1:3">
@@ -6506,7 +6506,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1" spans="1:3">
@@ -6517,7 +6517,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1" spans="1:3">
@@ -6528,7 +6528,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1" spans="1:3">
@@ -6572,7 +6572,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1" spans="1:3">
@@ -6583,7 +6583,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1" spans="2:3">
@@ -6602,7 +6602,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1" spans="1:3">
@@ -6613,7 +6613,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" spans="1:3">
@@ -6624,7 +6624,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1" spans="1:3">
@@ -6635,7 +6635,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1" spans="1:3">
@@ -6646,7 +6646,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1" spans="1:3">
@@ -6657,7 +6657,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" spans="2:3">
@@ -6676,7 +6676,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1" spans="1:3">
@@ -6687,7 +6687,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1" spans="1:3">
@@ -6698,7 +6698,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1" spans="1:3">
@@ -6709,7 +6709,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1" spans="1:3">
@@ -6720,7 +6720,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1" spans="1:3">
@@ -6731,7 +6731,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1" spans="1:3">
@@ -6742,7 +6742,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1" spans="1:3">
@@ -6753,7 +6753,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1" spans="1:3">
@@ -6764,7 +6764,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1" spans="1:3">
@@ -6775,7 +6775,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1" spans="1:3">
@@ -6797,7 +6797,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1" spans="1:3">
@@ -6808,7 +6808,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1" spans="1:3">
@@ -6819,7 +6819,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1" spans="1:3">
@@ -6830,7 +6830,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" spans="1:3">
@@ -6841,7 +6841,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1" spans="1:3">
@@ -6852,7 +6852,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1" spans="1:3">
@@ -6863,7 +6863,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1" spans="1:3">
@@ -6874,7 +6874,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1" spans="1:3">
@@ -6885,7 +6885,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1" spans="1:3">
@@ -6896,7 +6896,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1" spans="1:3">
@@ -6907,7 +6907,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1" spans="1:3">
@@ -6918,7 +6918,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1" spans="1:3">
@@ -6929,7 +6929,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1" spans="1:3">
@@ -6940,7 +6940,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1" spans="1:3">
@@ -6951,7 +6951,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1" spans="1:3">
@@ -6962,7 +6962,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1" spans="1:3">
@@ -6973,7 +6973,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1" spans="1:3">
@@ -6984,7 +6984,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1" spans="1:3">
@@ -6995,7 +6995,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1" spans="1:3">
@@ -7017,7 +7017,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1" spans="1:3">
@@ -7028,7 +7028,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1" spans="1:3">
@@ -7039,7 +7039,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1" spans="1:3">
@@ -7050,7 +7050,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1" spans="1:3">
@@ -7061,7 +7061,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1" spans="1:3">
@@ -7072,7 +7072,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1" spans="1:3">
@@ -7083,7 +7083,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1" spans="1:3">
@@ -7094,7 +7094,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1" spans="1:3">
@@ -7105,7 +7105,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1" spans="1:3">
@@ -7116,7 +7116,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1" spans="1:3">
@@ -7127,7 +7127,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1" spans="1:3">
@@ -7138,7 +7138,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1" spans="1:3">
@@ -7149,7 +7149,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1" spans="1:3">
@@ -7160,7 +7160,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1" spans="1:3">
@@ -7171,7 +7171,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1" spans="1:3">
@@ -7182,7 +7182,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1" spans="1:3">
@@ -7193,7 +7193,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1" spans="1:3">
@@ -7204,7 +7204,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1" spans="1:3">
@@ -7215,7 +7215,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1" spans="1:3">
@@ -7226,7 +7226,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" ht="15.75" customHeight="1" spans="1:3">
@@ -7237,7 +7237,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1" spans="1:3">
@@ -7248,7 +7248,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="463" ht="15.75" customHeight="1" spans="1:3">
@@ -7259,7 +7259,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" ht="15.75" customHeight="1" spans="1:3">
@@ -7270,7 +7270,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1" spans="1:3">
@@ -7281,7 +7281,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="466" ht="15.75" customHeight="1" spans="1:3">
@@ -7292,7 +7292,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1" spans="1:3">
@@ -7303,7 +7303,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1" spans="1:3">
@@ -7314,7 +7314,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" ht="15.75" customHeight="1" spans="1:3">
@@ -7325,7 +7325,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="470" ht="15.75" customHeight="1" spans="2:3">
@@ -7345,7 +7345,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" ht="15.75" customHeight="1" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="474" ht="15.75" customHeight="1" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="475" ht="15.75" customHeight="1" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1" spans="1:3">
@@ -7389,7 +7389,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1" spans="1:3">
@@ -7400,7 +7400,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1" spans="1:3">
@@ -7411,7 +7411,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" ht="15.75" customHeight="1" spans="1:3">
@@ -7422,7 +7422,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="480" ht="15.75" customHeight="1" spans="1:3">
@@ -7433,7 +7433,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="481" ht="15.75" customHeight="1" spans="1:3">
@@ -7444,7 +7444,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1"/>
